--- a/test1/mwb.xlsx
+++ b/test1/mwb.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="23613"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="26215"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/goldpig/Downloads/ExcelAndJSON/test1/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14000" tabRatio="500"/>
+    <workbookView xWindow="4500" yWindow="1540" windowWidth="25600" windowHeight="15540" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -19,81 +24,44 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>__workbook__</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>工作表3</t>
-  </si>
-  <si>
-    <t>工作表4</t>
-  </si>
-  <si>
-    <t>工作表1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>工作表2</t>
-  </si>
-  <si>
-    <t>aaa</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>skill1</t>
-  </si>
-  <si>
-    <t>skill2</t>
-  </si>
-  <si>
-    <t>skill3</t>
-  </si>
-  <si>
-    <t>option</t>
-  </si>
-  <si>
-    <t>lv1</t>
-  </si>
-  <si>
-    <t>lv2</t>
-  </si>
-  <si>
-    <t>lv3</t>
-  </si>
-  <si>
-    <t>lv4</t>
-  </si>
-  <si>
-    <t>lv5</t>
-  </si>
-  <si>
-    <t>name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>atk</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>def</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>hp</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>wb1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>wb2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>工作表4-&gt;工作表4改</t>
+    <t>ChipActions</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ChipActions.json</t>
+  </si>
+  <si>
+    <t>Name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tip</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Label</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Alias</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Icon</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Desc</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -178,18 +146,23 @@
     </xf>
   </cellXfs>
   <cellStyles count="9">
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="5" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="7" builtinId="8" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="2" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="4" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="6" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="8" builtinId="9" hidden="1"/>
-    <cellStyle name="普通" xfId="0" builtinId="0"/>
+    <cellStyle name="已访问的超链接" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="8" builtinId="9" hidden="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -515,124 +488,65 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K6"/>
+  <dimension ref="A1:K4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="18.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C1" t="s">
-        <v>20</v>
+        <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:11">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
         <v>3</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="G2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="H2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="G2" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>14</v>
-      </c>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
     </row>
-    <row r="3" spans="1:11">
-      <c r="A3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D3" t="s">
-        <v>17</v>
-      </c>
-      <c r="E3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11">
-      <c r="A4" t="s">
-        <v>1</v>
-      </c>
-      <c r="B4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11">
-      <c r="A5" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11">
-      <c r="A6" t="s">
-        <v>21</v>
-      </c>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>